--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Vtn-Itgb3.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Vtn-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Itgb3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>17.4744022271255</v>
+        <v>7.134618</v>
       </c>
       <c r="H2">
-        <v>17.4744022271255</v>
+        <v>21.403854</v>
       </c>
       <c r="I2">
-        <v>0.3260488769115795</v>
+        <v>0.0965317920926077</v>
       </c>
       <c r="J2">
-        <v>0.3260488769115795</v>
+        <v>0.0965317920926077</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.06747522724071</v>
+        <v>8.970048</v>
       </c>
       <c r="N2">
-        <v>3.06747522724071</v>
+        <v>26.910144</v>
       </c>
       <c r="O2">
-        <v>0.2476829472969383</v>
+        <v>0.487108783009476</v>
       </c>
       <c r="P2">
-        <v>0.2476829472969383</v>
+        <v>0.4871087830094759</v>
       </c>
       <c r="Q2">
-        <v>53.60229594254736</v>
+        <v>63.997865921664</v>
       </c>
       <c r="R2">
-        <v>53.60229594254736</v>
+        <v>575.9807932949759</v>
       </c>
       <c r="S2">
-        <v>0.08075674679631668</v>
+        <v>0.04702148376795389</v>
       </c>
       <c r="T2">
-        <v>0.08075674679631668</v>
+        <v>0.04702148376795389</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>17.4744022271255</v>
+        <v>7.134618</v>
       </c>
       <c r="H3">
-        <v>17.4744022271255</v>
+        <v>21.403854</v>
       </c>
       <c r="I3">
-        <v>0.3260488769115795</v>
+        <v>0.0965317920926077</v>
       </c>
       <c r="J3">
-        <v>0.3260488769115795</v>
+        <v>0.0965317920926077</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.921474864457521</v>
+        <v>9.012070666666666</v>
       </c>
       <c r="N3">
-        <v>8.921474864457521</v>
+        <v>27.036212</v>
       </c>
       <c r="O3">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="P3">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="Q3">
-        <v>155.8974402407206</v>
+        <v>64.29768159567199</v>
       </c>
       <c r="R3">
-        <v>155.8974402407206</v>
+        <v>578.679134361048</v>
       </c>
       <c r="S3">
-        <v>0.2348737099098871</v>
+        <v>0.04724176889224228</v>
       </c>
       <c r="T3">
-        <v>0.2348737099098871</v>
+        <v>0.04724176889224228</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>17.4744022271255</v>
+        <v>7.134618</v>
       </c>
       <c r="H4">
-        <v>17.4744022271255</v>
+        <v>21.403854</v>
       </c>
       <c r="I4">
-        <v>0.3260488769115795</v>
+        <v>0.0965317920926077</v>
       </c>
       <c r="J4">
-        <v>0.3260488769115795</v>
+        <v>0.0965317920926077</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.39573468663341</v>
+        <v>0.4327576666666667</v>
       </c>
       <c r="N4">
-        <v>0.39573468663341</v>
+        <v>1.298273</v>
       </c>
       <c r="O4">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="P4">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="Q4">
-        <v>6.91522708945767</v>
+        <v>3.087560638238</v>
       </c>
       <c r="R4">
-        <v>6.91522708945767</v>
+        <v>27.788045744142</v>
       </c>
       <c r="S4">
-        <v>0.0104184202053757</v>
+        <v>0.00226853943241154</v>
       </c>
       <c r="T4">
-        <v>0.0104184202053757</v>
+        <v>0.00226853943241154</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>36.1200232241983</v>
+        <v>17.50798033333334</v>
       </c>
       <c r="H5">
-        <v>36.1200232241983</v>
+        <v>52.52394100000001</v>
       </c>
       <c r="I5">
-        <v>0.6739511230884204</v>
+        <v>0.2368839813846793</v>
       </c>
       <c r="J5">
-        <v>0.6739511230884204</v>
+        <v>0.2368839813846794</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.06747522724071</v>
+        <v>8.970048</v>
       </c>
       <c r="N5">
-        <v>3.06747522724071</v>
+        <v>26.910144</v>
       </c>
       <c r="O5">
-        <v>0.2476829472969383</v>
+        <v>0.487108783009476</v>
       </c>
       <c r="P5">
-        <v>0.2476829472969383</v>
+        <v>0.4871087830094759</v>
       </c>
       <c r="Q5">
-        <v>110.7972764475874</v>
+        <v>157.047423973056</v>
       </c>
       <c r="R5">
-        <v>110.7972764475874</v>
+        <v>1413.426815757504</v>
       </c>
       <c r="S5">
-        <v>0.1669262005006216</v>
+        <v>0.1153882678867305</v>
       </c>
       <c r="T5">
-        <v>0.1669262005006216</v>
+        <v>0.1153882678867305</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>36.1200232241983</v>
+        <v>17.50798033333334</v>
       </c>
       <c r="H6">
-        <v>36.1200232241983</v>
+        <v>52.52394100000001</v>
       </c>
       <c r="I6">
-        <v>0.6739511230884204</v>
+        <v>0.2368839813846793</v>
       </c>
       <c r="J6">
-        <v>0.6739511230884204</v>
+        <v>0.2368839813846794</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.921474864457521</v>
+        <v>9.012070666666666</v>
       </c>
       <c r="N6">
-        <v>8.921474864457521</v>
+        <v>27.036212</v>
       </c>
       <c r="O6">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="P6">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="Q6">
-        <v>322.243879298307</v>
+        <v>157.7831559946102</v>
       </c>
       <c r="R6">
-        <v>322.243879298307</v>
+        <v>1420.048403951492</v>
       </c>
       <c r="S6">
-        <v>0.4854897893748597</v>
+        <v>0.1159288360886674</v>
       </c>
       <c r="T6">
-        <v>0.4854897893748597</v>
+        <v>0.1159288360886675</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>17.50798033333334</v>
+      </c>
+      <c r="H7">
+        <v>52.52394100000001</v>
+      </c>
+      <c r="I7">
+        <v>0.2368839813846793</v>
+      </c>
+      <c r="J7">
+        <v>0.2368839813846794</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.4327576666666667</v>
+      </c>
+      <c r="N7">
+        <v>1.298273</v>
+      </c>
+      <c r="O7">
+        <v>0.02350043838650813</v>
+      </c>
+      <c r="P7">
+        <v>0.02350043838650813</v>
+      </c>
+      <c r="Q7">
+        <v>7.576712717099223</v>
+      </c>
+      <c r="R7">
+        <v>68.19041445389301</v>
+      </c>
+      <c r="S7">
+        <v>0.005566877409281395</v>
+      </c>
+      <c r="T7">
+        <v>0.005566877409281396</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>49.26691733333334</v>
+      </c>
+      <c r="H8">
+        <v>147.800752</v>
+      </c>
+      <c r="I8">
+        <v>0.6665842265227129</v>
+      </c>
+      <c r="J8">
+        <v>0.666584226522713</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>8.970048</v>
+      </c>
+      <c r="N8">
+        <v>26.910144</v>
+      </c>
+      <c r="O8">
+        <v>0.487108783009476</v>
+      </c>
+      <c r="P8">
+        <v>0.4871087830094759</v>
+      </c>
+      <c r="Q8">
+        <v>441.9266132920321</v>
+      </c>
+      <c r="R8">
+        <v>3977.339519628288</v>
+      </c>
+      <c r="S8">
+        <v>0.3246990313547915</v>
+      </c>
+      <c r="T8">
+        <v>0.3246990313547916</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>36.1200232241983</v>
-      </c>
-      <c r="H7">
-        <v>36.1200232241983</v>
-      </c>
-      <c r="I7">
-        <v>0.6739511230884204</v>
-      </c>
-      <c r="J7">
-        <v>0.6739511230884204</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.39573468663341</v>
-      </c>
-      <c r="N7">
-        <v>0.39573468663341</v>
-      </c>
-      <c r="O7">
-        <v>0.03195355341831477</v>
-      </c>
-      <c r="P7">
-        <v>0.03195355341831477</v>
-      </c>
-      <c r="Q7">
-        <v>14.2939460718196</v>
-      </c>
-      <c r="R7">
-        <v>14.2939460718196</v>
-      </c>
-      <c r="S7">
-        <v>0.02153513321293908</v>
-      </c>
-      <c r="T7">
-        <v>0.02153513321293908</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>49.26691733333334</v>
+      </c>
+      <c r="H9">
+        <v>147.800752</v>
+      </c>
+      <c r="I9">
+        <v>0.6665842265227129</v>
+      </c>
+      <c r="J9">
+        <v>0.666584226522713</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>9.012070666666666</v>
+      </c>
+      <c r="N9">
+        <v>27.036212</v>
+      </c>
+      <c r="O9">
+        <v>0.489390778604016</v>
+      </c>
+      <c r="P9">
+        <v>0.489390778604016</v>
+      </c>
+      <c r="Q9">
+        <v>443.9969405368249</v>
+      </c>
+      <c r="R9">
+        <v>3995.972464831425</v>
+      </c>
+      <c r="S9">
+        <v>0.3262201736231062</v>
+      </c>
+      <c r="T9">
+        <v>0.3262201736231063</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>49.26691733333334</v>
+      </c>
+      <c r="H10">
+        <v>147.800752</v>
+      </c>
+      <c r="I10">
+        <v>0.6665842265227129</v>
+      </c>
+      <c r="J10">
+        <v>0.666584226522713</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.4327576666666667</v>
+      </c>
+      <c r="N10">
+        <v>1.298273</v>
+      </c>
+      <c r="O10">
+        <v>0.02350043838650813</v>
+      </c>
+      <c r="P10">
+        <v>0.02350043838650813</v>
+      </c>
+      <c r="Q10">
+        <v>21.32063618903289</v>
+      </c>
+      <c r="R10">
+        <v>191.885725701296</v>
+      </c>
+      <c r="S10">
+        <v>0.01566502154481519</v>
+      </c>
+      <c r="T10">
+        <v>0.01566502154481519</v>
       </c>
     </row>
   </sheetData>
